--- a/is_1_handbook.xlsx
+++ b/is_1_handbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anant\PycharmProjects\IS1_Temeletry_Decoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EEC2C1-0379-4E4C-98C8-8B2D67A5C6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF43070-59D4-445D-AE09-1DED817565FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="5310" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inspire_pkt" sheetId="1" r:id="rId1"/>
@@ -13124,15 +13124,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A804" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B804" sqref="B804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13189,7 +13192,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2073</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2073</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2073</v>
       </c>
@@ -13249,7 +13252,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2073</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2073</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2073</v>
       </c>
@@ -13309,7 +13312,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2073</v>
       </c>
@@ -13329,7 +13332,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2073</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2073</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13404,7 +13407,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -13427,7 +13430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -13450,7 +13453,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -13476,7 +13479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -13502,7 +13505,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -13528,7 +13531,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -13603,7 +13606,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -13629,7 +13632,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -13655,7 +13658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -13681,7 +13684,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -13707,7 +13710,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -13733,7 +13736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -13782,7 +13785,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -13828,7 +13831,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -13874,7 +13877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -13897,7 +13900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -13920,7 +13923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13943,7 +13946,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -13966,7 +13969,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -13989,7 +13992,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -14012,7 +14015,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -14058,7 +14061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -14081,7 +14084,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -14107,7 +14110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -14133,7 +14136,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -14159,7 +14162,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -14185,7 +14188,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -14237,7 +14240,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -14263,7 +14266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -14312,7 +14315,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -14338,7 +14341,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -14364,7 +14367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -14390,7 +14393,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -14413,7 +14416,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -14436,7 +14439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -14459,7 +14462,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -14485,7 +14488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -14511,7 +14514,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -14537,7 +14540,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -14563,7 +14566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -14615,7 +14618,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -14641,7 +14644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -14667,7 +14670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -14719,7 +14722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -14771,7 +14774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -14794,7 +14797,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -14817,7 +14820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -14840,7 +14843,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -14863,7 +14866,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -14886,7 +14889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -14958,7 +14961,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -14984,7 +14987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -15010,7 +15013,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -15088,7 +15091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -15114,7 +15117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -15140,7 +15143,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -15166,7 +15169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -15192,7 +15195,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -15218,7 +15221,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -15244,7 +15247,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -15270,7 +15273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -15296,7 +15299,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -15322,7 +15325,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -15374,7 +15377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -15414,7 +15417,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -15434,7 +15437,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -15457,7 +15460,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -15480,7 +15483,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -15503,7 +15506,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -15526,7 +15529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -15549,7 +15552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -15575,7 +15578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -15598,7 +15601,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -15621,7 +15624,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -15644,7 +15647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -15667,7 +15670,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -15693,7 +15696,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -15719,7 +15722,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -15745,7 +15748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -15771,7 +15774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -15797,7 +15800,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -15823,7 +15826,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -15849,7 +15852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -15901,7 +15904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -15927,7 +15930,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -15953,7 +15956,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -16005,7 +16008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -16031,7 +16034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -16057,7 +16060,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -16083,7 +16086,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -16109,7 +16112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -16158,7 +16161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -16184,7 +16187,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -16210,7 +16213,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -16236,7 +16239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -16262,7 +16265,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -16288,7 +16291,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -16314,7 +16317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -16340,7 +16343,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -16366,7 +16369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -16392,7 +16395,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -16418,7 +16421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -16444,7 +16447,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -16470,7 +16473,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -16548,7 +16551,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -16574,7 +16577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -16600,7 +16603,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -16626,7 +16629,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -16652,7 +16655,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -16678,7 +16681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -16701,7 +16704,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -16724,7 +16727,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -30931,7 +30934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1277</v>
       </c>
@@ -30951,7 +30954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1277</v>
       </c>
@@ -30971,7 +30974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1277</v>
       </c>
@@ -30991,7 +30994,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1277</v>
       </c>
@@ -31011,7 +31014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1277</v>
       </c>
@@ -31031,7 +31034,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1277</v>
       </c>
@@ -31051,7 +31054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1277</v>
       </c>
@@ -31071,7 +31074,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1277</v>
       </c>
@@ -31097,7 +31100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1277</v>
       </c>
@@ -31123,7 +31126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>73</v>
       </c>
@@ -31146,7 +31149,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>73</v>
       </c>
@@ -31169,7 +31172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>73</v>
       </c>
@@ -31195,7 +31198,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>73</v>
       </c>
@@ -31221,7 +31224,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>73</v>
       </c>
@@ -31247,7 +31250,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>73</v>
       </c>
@@ -31273,7 +31276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>73</v>
       </c>
@@ -31299,7 +31302,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>73</v>
       </c>
@@ -31325,7 +31328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>73</v>
       </c>
@@ -31351,7 +31354,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>73</v>
       </c>
@@ -31377,7 +31380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>73</v>
       </c>
@@ -31403,7 +31406,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>73</v>
       </c>
@@ -31429,7 +31432,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>73</v>
       </c>
@@ -31455,7 +31458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>73</v>
       </c>
@@ -31481,7 +31484,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>73</v>
       </c>
@@ -31507,7 +31510,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -31533,7 +31536,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -31559,7 +31562,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -31585,7 +31588,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -31611,7 +31614,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -31637,7 +31640,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -31663,7 +31666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -31689,7 +31692,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -31715,7 +31718,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -31741,7 +31744,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -31767,7 +31770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>73</v>
       </c>
@@ -31793,7 +31796,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>73</v>
       </c>
@@ -31819,7 +31822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>73</v>
       </c>
@@ -31845,7 +31848,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>73</v>
       </c>
@@ -31871,7 +31874,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>73</v>
       </c>
@@ -31897,7 +31900,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>73</v>
       </c>
@@ -31923,7 +31926,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>73</v>
       </c>
@@ -31949,7 +31952,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>73</v>
       </c>
@@ -31975,7 +31978,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>73</v>
       </c>
@@ -32001,7 +32004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>73</v>
       </c>
@@ -32027,7 +32030,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>73</v>
       </c>
@@ -32053,7 +32056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>73</v>
       </c>
@@ -32079,7 +32082,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>73</v>
       </c>
@@ -32105,7 +32108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>73</v>
       </c>
@@ -32131,7 +32134,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>73</v>
       </c>
@@ -32154,7 +32157,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>73</v>
       </c>
@@ -32180,7 +32183,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>73</v>
       </c>
@@ -32206,7 +32209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>73</v>
       </c>
@@ -32232,7 +32235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>73</v>
       </c>
@@ -32258,7 +32261,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>73</v>
       </c>
@@ -32284,7 +32287,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>466</v>
       </c>
@@ -32301,7 +32304,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>496</v>
       </c>
@@ -32318,7 +32321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>534</v>
       </c>
@@ -54635,7 +54638,7 @@
   <autoFilter ref="A1:Q1780" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="beacon"/>
+        <filter val="adcs_refs"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/is_1_handbook.xlsx
+++ b/is_1_handbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anant\PycharmProjects\IS1_Temeletry_Decoding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF43070-59D4-445D-AE09-1DED817565FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED4AF08-09D1-4B58-A790-7936226BD906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="5310" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inspire_pkt" sheetId="1" r:id="rId1"/>
@@ -12174,12 +12174,19 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C6" sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -13124,8 +13131,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A804" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B804" sqref="B804"/>
+    <sheetView tabSelected="1" topLeftCell="A1421" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F1437" sqref="F1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30934,7 +30941,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>1277</v>
       </c>
@@ -30954,7 +30961,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>1277</v>
       </c>
@@ -30974,7 +30981,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1277</v>
       </c>
@@ -30994,7 +31001,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>1277</v>
       </c>
@@ -31014,7 +31021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>1277</v>
       </c>
@@ -31034,7 +31041,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>1277</v>
       </c>
@@ -31054,7 +31061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1277</v>
       </c>
@@ -31074,7 +31081,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="777" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1277</v>
       </c>
@@ -31100,7 +31107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1277</v>
       </c>
@@ -31126,7 +31133,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>73</v>
       </c>
@@ -31149,7 +31156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>73</v>
       </c>
@@ -31172,7 +31179,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>73</v>
       </c>
@@ -31198,7 +31205,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>73</v>
       </c>
@@ -31224,7 +31231,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>73</v>
       </c>
@@ -31250,7 +31257,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>73</v>
       </c>
@@ -31276,7 +31283,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>73</v>
       </c>
@@ -31302,7 +31309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>73</v>
       </c>
@@ -31328,7 +31335,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="787" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>73</v>
       </c>
@@ -31354,7 +31361,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>73</v>
       </c>
@@ -31380,7 +31387,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>73</v>
       </c>
@@ -31406,7 +31413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>73</v>
       </c>
@@ -31432,7 +31439,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>73</v>
       </c>
@@ -31458,7 +31465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>73</v>
       </c>
@@ -31484,7 +31491,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>73</v>
       </c>
@@ -31510,7 +31517,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>73</v>
       </c>
@@ -31536,7 +31543,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>73</v>
       </c>
@@ -31562,7 +31569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>73</v>
       </c>
@@ -31588,7 +31595,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="797" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>73</v>
       </c>
@@ -31614,7 +31621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>73</v>
       </c>
@@ -31640,7 +31647,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>73</v>
       </c>
@@ -31666,7 +31673,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>73</v>
       </c>
@@ -31692,7 +31699,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>73</v>
       </c>
@@ -31718,7 +31725,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>73</v>
       </c>
@@ -31744,7 +31751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>73</v>
       </c>
@@ -31770,7 +31777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="804" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>73</v>
       </c>
@@ -31796,7 +31803,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="805" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>73</v>
       </c>
@@ -31822,7 +31829,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>73</v>
       </c>
@@ -31848,7 +31855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="807" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>73</v>
       </c>
@@ -31874,7 +31881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>73</v>
       </c>
@@ -31900,7 +31907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>73</v>
       </c>
@@ -31926,7 +31933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>73</v>
       </c>
@@ -31952,7 +31959,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>73</v>
       </c>
@@ -31978,7 +31985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>73</v>
       </c>
@@ -32004,7 +32011,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>73</v>
       </c>
@@ -32030,7 +32037,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>73</v>
       </c>
@@ -32056,7 +32063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>73</v>
       </c>
@@ -32082,7 +32089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>73</v>
       </c>
@@ -32108,7 +32115,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="817" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>73</v>
       </c>
@@ -32134,7 +32141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>73</v>
       </c>
@@ -32157,7 +32164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>73</v>
       </c>
@@ -32183,7 +32190,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>73</v>
       </c>
@@ -32209,7 +32216,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="821" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>73</v>
       </c>
@@ -32235,7 +32242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>73</v>
       </c>
@@ -32261,7 +32268,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>73</v>
       </c>
@@ -32287,7 +32294,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>466</v>
       </c>
@@ -32304,7 +32311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>496</v>
       </c>
@@ -32321,7 +32328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>534</v>
       </c>
@@ -45916,7 +45923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
         <v>533</v>
       </c>
@@ -45936,7 +45943,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
         <v>533</v>
       </c>
@@ -45956,7 +45963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
         <v>533</v>
       </c>
@@ -45976,7 +45983,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
         <v>533</v>
       </c>
@@ -45996,7 +46003,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
         <v>533</v>
       </c>
@@ -46016,7 +46023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
         <v>533</v>
       </c>
@@ -46036,7 +46043,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
         <v>533</v>
       </c>
@@ -46056,7 +46063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
         <v>533</v>
       </c>
@@ -46082,7 +46089,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
         <v>533</v>
       </c>
@@ -46108,7 +46115,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
         <v>73</v>
       </c>
@@ -46134,7 +46141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
         <v>73</v>
       </c>
@@ -46160,7 +46167,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
         <v>73</v>
       </c>
@@ -46186,7 +46193,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1412" t="s">
         <v>73</v>
       </c>
@@ -46212,7 +46219,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
         <v>73</v>
       </c>
@@ -46235,7 +46242,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
         <v>73</v>
       </c>
@@ -46258,7 +46265,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1415" t="s">
         <v>73</v>
       </c>
@@ -46281,7 +46288,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
         <v>73</v>
       </c>
@@ -46304,7 +46311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
         <v>73</v>
       </c>
@@ -46327,7 +46334,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1418" t="s">
         <v>73</v>
       </c>
@@ -46350,7 +46357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
         <v>73</v>
       </c>
@@ -46373,7 +46380,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
         <v>73</v>
       </c>
@@ -46396,7 +46403,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1421" t="s">
         <v>73</v>
       </c>
@@ -46419,7 +46426,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1422" t="s">
         <v>73</v>
       </c>
@@ -46442,7 +46449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1423" t="s">
         <v>73</v>
       </c>
@@ -46465,7 +46472,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1424" t="s">
         <v>73</v>
       </c>
@@ -46488,7 +46495,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1425" t="s">
         <v>73</v>
       </c>
@@ -46511,7 +46518,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1426" t="s">
         <v>73</v>
       </c>
@@ -46534,7 +46541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
         <v>73</v>
       </c>
@@ -46557,7 +46564,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
         <v>73</v>
       </c>
@@ -46580,7 +46587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
         <v>73</v>
       </c>
@@ -46603,7 +46610,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
         <v>73</v>
       </c>
@@ -46626,7 +46633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1431" t="s">
         <v>73</v>
       </c>
@@ -46649,7 +46656,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
         <v>73</v>
       </c>
@@ -46672,7 +46679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
         <v>73</v>
       </c>
@@ -46698,7 +46705,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
         <v>73</v>
       </c>
@@ -46721,7 +46728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
         <v>73</v>
       </c>
@@ -46747,7 +46754,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
         <v>466</v>
       </c>
@@ -46764,7 +46771,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="1437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
         <v>496</v>
       </c>
@@ -54638,7 +54645,7 @@
   <autoFilter ref="A1:Q1780" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="adcs_refs"/>
+        <filter val="adcs_css"/>
       </filters>
     </filterColumn>
   </autoFilter>
